--- a/biology/Botanique/Frullania/Frullania.xlsx
+++ b/biology/Botanique/Frullania/Frullania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frullania, en français la frullaine, est un genre d'hépatiques de la classe des Jungermanniopsida (hépatiques à lobes), de la famille des Frullaniaceae (ou des Jubulaceae selon les classifications).
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une espèce saxicole[2] ou corticole[3] qui se nourrit des éléments minéraux contenus dans l'eau qui ruisselle sur les rochers ou l'écorce des arbres[4] dans les zones tempérées. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une espèce saxicole ou corticole qui se nourrit des éléments minéraux contenus dans l'eau qui ruisselle sur les rochers ou l'écorce des arbres dans les zones tempérées. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La frullaine pousse accrochée sur son hôte sous forme des plaques réticulées. Les feuilles incubes ont des lobes repliés sur eux-mêmes, rappelant la forme du foie, d'où l'appellation d'hépatique
 </t>
@@ -573,10 +589,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Frullaines sont cause d'allergies. En effet, elles renferment dans le thalle, une lactone sesquiterpénique  allergisante, le frullanolide—I. Du fait de la présence du groupement α-méthylène-γ-butyrolactone[5], il est responsable d'une dermatite de contact ou eczéma de contact, également connu sous l'appellation populaire de « maladie des bûcherons »[6]. Ceci provoque de fortes démangeaisons susceptibles de s'étendre au-delà des zones du corps ayant été en contact avec la frullaine. 
-L'énantiomère dextrogyre de cette lactone a été isolé de Frullania dilatata, un levogyre de Frullania tamarisci, dont on tire la friedéline[7].  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Frullaines sont cause d'allergies. En effet, elles renferment dans le thalle, une lactone sesquiterpénique  allergisante, le frullanolide—I. Du fait de la présence du groupement α-méthylène-γ-butyrolactone, il est responsable d'une dermatite de contact ou eczéma de contact, également connu sous l'appellation populaire de « maladie des bûcherons ». Ceci provoque de fortes démangeaisons susceptibles de s'étendre au-delà des zones du corps ayant été en contact avec la frullaine. 
+L'énantiomère dextrogyre de cette lactone a été isolé de Frullania dilatata, un levogyre de Frullania tamarisci, dont on tire la friedéline.  
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Frullania est donné par le botaniste italien Raddi qui le dédie à l'homme d'État florentin Leonardo Frullani (it)[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Frullania est donné par le botaniste italien Raddi qui le dédie à l'homme d'État florentin Leonardo Frullani (it).
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Parmi les très nombreuses espèces de ce genre, on peut citer :
 Frullania dilatata
